--- a/pred_ohlcv/54_21/2020-01-24 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>345449.5338171559</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>346337.5338171559</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>381949.3034171559</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>378566.4963171559</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>378088.2457171559</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>379096.1257171559</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>378937.7287171559</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>379014.7287171559</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>348739.5260171558</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>348761.5260171558</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>338216.3861171558</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>346544.1791171558</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>671396.0621171559</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>669742.5863171559</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>666469.2388171558</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>667822.1339171558</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>664655.6657171558</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>669706.7495171558</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>655952.8920171558</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>655977.8920171558</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>630870.4511171557</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>586637.0048171558</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>602124.5070171556</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>610424.4215171556</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>606932.1493171556</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>585474.2451171556</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>585486.5970171556</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>590545.6816171556</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>589946.5690171556</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>587820.1392171555</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>575929.0518171556</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>564529.0518171556</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>606920.8893171555</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-217481.4122828447</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-212831.4122828447</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-237880.5374828447</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-307230.5389828447</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-302398.3929828447</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-316221.7853828447</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-308621.7853828447</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-344466.1701828447</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-340838.1315828447</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-324124.0986828447</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-312634.3203828447</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-313485.0179828447</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-313430.6730828446</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-297517.8953828447</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-285911.8409828446</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-283730.2045828446</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-291534.5875828446</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-317484.5875828446</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-253400.8981828446</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-252026.0412828446</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-300953.3777602594</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-294331.6051602594</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-294331.6051602594</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>345449.5338171559</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>346337.5338171559</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>346260.5338171559</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>381949.3034171559</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>378566.4963171559</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>378088.2457171559</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>379096.1257171559</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>378937.7287171559</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>379014.7287171559</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>348739.5260171558</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>348761.5260171558</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>338216.3861171558</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>346544.1791171558</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>671396.0621171559</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>669742.5863171559</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>666469.2388171558</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>667822.1339171558</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>664655.6657171558</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>664611.6657171558</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>633548.4511171557</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>586637.0048171558</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>586664.9007171558</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>602124.5070171556</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>609767.0968171556</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>610424.4215171556</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>606932.1493171556</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>585474.2451171556</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>585486.5970171556</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>590545.6816171556</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>589946.5690171556</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>587820.1392171555</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>575929.0518171556</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-184695.2045828446</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-307230.5389828447</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-302398.3929828447</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-308621.7853828447</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-344466.1701828447</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-324124.0986828447</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-312634.3203828447</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-313430.6730828446</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-294329.7101828447</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-285911.8409828446</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-291534.5875828446</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-291534.5875828446</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-297484.5875828446</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-317484.5875828446</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-328334.5875828446</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-253400.8981828446</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-252026.0412828446</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-247717.5815828446</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-300953.3777602594</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-294331.6051602594</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-294331.6051602594</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
